--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_PO_AnNM.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_PO_AnNM.xlsx
@@ -259,16 +259,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,41 +968,41 @@
       <c r="F23" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <f>SUM(C6:C23)</f>
         <v>100</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <f>SUM(E6:E23)</f>
         <v>61.999999999999986</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <f>IF(C25=0,"",E25/C25*100)</f>
         <v>61.999999999999986</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="12"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="10" t="str">
-        <f>IF(E26="","",IF(E26&gt;=80,"Đề xuất PO4",IF(E26&gt;=70,"Đề xuất PO3",IF(E26&gt;=60,"Đề xuất PO2","Đề xuất PO1"))))</f>
-        <v>Đề xuất PO2</v>
+      <c r="E27" s="8" t="str">
+        <f>IF(E26="","",IF(E26&gt;=80,"Product Owner 4",IF(E26&gt;=70,"Product Owner 3",IF(E26&gt;=60,"Product Owner 2","Product Owner 1"))))</f>
+        <v>Product Owner 2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1016,133 +1016,133 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
     </row>
     <row r="40" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:F35"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
